--- a/data/trans_dic/P3A$pareja-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3725643272706468</v>
+        <v>0.3686355956296805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08305960870269102</v>
+        <v>0.08343887589731265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2201378953694103</v>
+        <v>0.2206864695090244</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4687363580715352</v>
+        <v>0.4727034549052987</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1269669994048243</v>
+        <v>0.1254296894980848</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2713206992789461</v>
+        <v>0.2744518606698222</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5301395939943007</v>
+        <v>0.5301395939943008</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2028700137360319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3542804663963909</v>
+        <v>0.3542804663963908</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4940329894889727</v>
+        <v>0.4933908394915203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1836189022322214</v>
+        <v>0.1832436024432942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3344124615627637</v>
+        <v>0.3343912146887614</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5657378508187546</v>
+        <v>0.5660427021823152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2252781490269784</v>
+        <v>0.2251904006318592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3760815317741906</v>
+        <v>0.3757561668217982</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4952277638977635</v>
+        <v>0.4970429515997207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2453125538070861</v>
+        <v>0.2460680946764424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.376941044469899</v>
+        <v>0.3782707632730352</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5631669425369785</v>
+        <v>0.5604142850725458</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2945522738352464</v>
+        <v>0.2920904175331439</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4188346910049562</v>
+        <v>0.4200912101921691</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.4612551277995354</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2827388358131096</v>
+        <v>0.2827388358131097</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.37507833308086</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4260890242021346</v>
+        <v>0.4298553734504038</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2572021228102661</v>
+        <v>0.2567364143212967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3510142681185227</v>
+        <v>0.3548664810858088</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4952538168146433</v>
+        <v>0.498098943072699</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3063079032089662</v>
+        <v>0.3103381843875863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3981134111048152</v>
+        <v>0.3988595196787453</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.224080604105189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.355505182568677</v>
+        <v>0.3555051825686769</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4759439811273737</v>
+        <v>0.4765276075923394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2122895232374833</v>
+        <v>0.2105679576726748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3440151600500255</v>
+        <v>0.3436860087141401</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5139959077128522</v>
+        <v>0.5148235264120525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2363559670144431</v>
+        <v>0.2359161787958354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3659758384422921</v>
+        <v>0.3671588320736123</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>185585</v>
+        <v>183628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51747</v>
+        <v>51983</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>246806</v>
+        <v>247421</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>233491</v>
+        <v>235467</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>79102</v>
+        <v>78144</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>304189</v>
+        <v>307699</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>474339</v>
+        <v>473723</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>204767</v>
+        <v>204348</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>694009</v>
+        <v>693965</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>543186</v>
+        <v>543479</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>251224</v>
+        <v>251126</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>780485</v>
+        <v>779810</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>518245</v>
+        <v>520145</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>257000</v>
+        <v>257791</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>789360</v>
+        <v>792145</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>589342</v>
+        <v>586462</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>308585</v>
+        <v>306006</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>877091</v>
+        <v>879722</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>415627</v>
+        <v>419301</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>234143</v>
+        <v>233719</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>661940</v>
+        <v>669204</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>483093</v>
+        <v>485869</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>278846</v>
+        <v>282515</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>750759</v>
+        <v>752166</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1656376</v>
+        <v>1658407</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>784658</v>
+        <v>778295</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2468777</v>
+        <v>2466415</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1788804</v>
+        <v>1791684</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>873612</v>
+        <v>871987</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2626375</v>
+        <v>2634865</v>
       </c>
     </row>
     <row r="24">
